--- a/перенос в бланк заказа/ФА.xlsx
+++ b/перенос в бланк заказа/ФА.xlsx
@@ -5,30 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\Махеев\перенос в бланк заказа\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Махеев\АВТОМАТИЗАЦИЯ\Махеев\перенос в бланк заказа\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A970B1-9740-4221-B279-48D4A967377C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6E40F6-5141-47E5-9E73-9BC74C602AD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>E-1MZ-274-D19-X00-Y20</t>
   </si>
@@ -144,15 +147,6 @@
     <t>Сливочно-чесночный</t>
   </si>
   <si>
-    <t>E-2MC-321-D20-X00-Y20</t>
-  </si>
-  <si>
-    <t>Майонезный соус Махеевъ "Сметанный с грибами" Дой-пак с дозатором</t>
-  </si>
-  <si>
-    <t>Сметанный с грибами</t>
-  </si>
-  <si>
     <t>E-1DZ-252-D30-X00-Y16</t>
   </si>
   <si>
@@ -174,15 +168,6 @@
     <t>Клубничный</t>
   </si>
   <si>
-    <t>E-1DZ-294-D30-X00-Y16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пакет дой-пак, "Лесные ягоды" </t>
-  </si>
-  <si>
-    <t>Лесные ягоды</t>
-  </si>
-  <si>
     <t>E-1DZ-260-D30-X00-Y16</t>
   </si>
   <si>
@@ -226,6 +211,27 @@
   </si>
   <si>
     <t>Горчица готовая "Русская" с/банка ТВИСТ</t>
+  </si>
+  <si>
+    <t>Сырный</t>
+  </si>
+  <si>
+    <t>Соус деликатесный Кисло-сладкий</t>
+  </si>
+  <si>
+    <t>230 г</t>
+  </si>
+  <si>
+    <t>E-2MC-322-D20-X00-Y20</t>
+  </si>
+  <si>
+    <t>Майонезный соус Махеевъ "Сырный" Дой-пак с дозатором</t>
+  </si>
+  <si>
+    <t>E-3SD-243-D23-X00-Y16</t>
+  </si>
+  <si>
+    <t>Соус деликатесный Махеевъ "Кисло-сладкий" ДП 230 г</t>
   </si>
 </sst>
 </file>
@@ -261,21 +267,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -286,23 +285,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист3"/>
-      <sheetName val="Лист2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -571,7 +553,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +561,7 @@
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -752,191 +734,191 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
+      <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
         <v>57</v>
-      </c>
-      <c r="E20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
         <v>57</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/перенос в бланк заказа/ФА.xlsx
+++ b/перенос в бланк заказа/ФА.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Махеев\АВТОМАТИЗАЦИЯ\Махеев\перенос в бланк заказа\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6E40F6-5141-47E5-9E73-9BC74C602AD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9722C6-EE73-4867-85C3-E4FB7E1D6B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="73">
   <si>
     <t>E-1MZ-274-D19-X00-Y20</t>
   </si>
@@ -138,15 +141,6 @@
     <t>Бургер</t>
   </si>
   <si>
-    <t>E-2MC-320-D20-X00-Y20</t>
-  </si>
-  <si>
-    <t>Майонезный соус Махеевъ "Сливочно-чесночный" Дой-пак с дозатором</t>
-  </si>
-  <si>
-    <t>Сливочно-чесночный</t>
-  </si>
-  <si>
     <t>E-1DZ-252-D30-X00-Y16</t>
   </si>
   <si>
@@ -213,25 +207,52 @@
     <t>Горчица готовая "Русская" с/банка ТВИСТ</t>
   </si>
   <si>
-    <t>Сырный</t>
-  </si>
-  <si>
-    <t>Соус деликатесный Кисло-сладкий</t>
-  </si>
-  <si>
     <t>230 г</t>
   </si>
   <si>
-    <t>E-2MC-322-D20-X00-Y20</t>
-  </si>
-  <si>
-    <t>Майонезный соус Махеевъ "Сырный" Дой-пак с дозатором</t>
-  </si>
-  <si>
-    <t>E-3SD-243-D23-X00-Y16</t>
-  </si>
-  <si>
-    <t>Соус деликатесный Махеевъ "Кисло-сладкий" ДП 230 г</t>
+    <t>E-1KH-295-D30-X00-Y16</t>
+  </si>
+  <si>
+    <t>Пакет Дой-пак с дозатором, Шашлычный</t>
+  </si>
+  <si>
+    <t>Кетчуп</t>
+  </si>
+  <si>
+    <t>E-1KH-284-D30-X00-Y16</t>
+  </si>
+  <si>
+    <t>Пакет Дой-пак с дозатором, Томатный</t>
+  </si>
+  <si>
+    <t>E-2MC-533-D20-X00-Y20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соус Махеевъ "Тар-Тар" 25% ДП </t>
+  </si>
+  <si>
+    <t>E-2MC-323-D20-X00-Y20</t>
+  </si>
+  <si>
+    <t>Майонезный соус Махеевъ "Цезарь"Дой-пак с дозатором</t>
+  </si>
+  <si>
+    <t>E-3SD-282-D23-X00-Y16</t>
+  </si>
+  <si>
+    <t>Соус деликатесный Махеевъ "Терияки" ДП 230 г</t>
+  </si>
+  <si>
+    <t>Терияки</t>
+  </si>
+  <si>
+    <t>E-1DZ-294-D30-X00-Y16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пакет дой-пак, "Лесные ягоды" </t>
+  </si>
+  <si>
+    <t>Джем</t>
   </si>
 </sst>
 </file>
@@ -274,7 +295,22 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -285,6 +321,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист3"/>
+      <sheetName val="Лист2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -550,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,174 +804,210 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
         <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
         <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
         <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/перенос в бланк заказа/ФА.xlsx
+++ b/перенос в бланк заказа/ФА.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Махеев\АВТОМАТИЗАЦИЯ\Махеев\перенос в бланк заказа\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9722C6-EE73-4867-85C3-E4FB7E1D6B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ED6771-A7EF-4569-B98B-6512334738A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,9 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="Марка">OFFSET('[1]Обновить таблицы'!$C$3,MATCH('[1]Реестр промо 4 кв.24'!$C1,'[1]Обновить таблицы'!$C:$C,0)-3,1,COUNTIF('[1]Обновить таблицы'!$C:$C,'[1]Реестр промо 4 кв.24'!$C1),1)</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
   <si>
     <t>E-1MZ-274-D19-X00-Y20</t>
   </si>
@@ -253,6 +256,108 @@
   </si>
   <si>
     <t>Джем</t>
+  </si>
+  <si>
+    <t>E-4KF-110-W15-X00-Y1</t>
+  </si>
+  <si>
+    <t>"35"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конфеты "35" со вкусом шоколада </t>
+  </si>
+  <si>
+    <t>E-4KF-345-W15-X00-Y1</t>
+  </si>
+  <si>
+    <t>E-4KF-603-W15-X00-Y1</t>
+  </si>
+  <si>
+    <t>ДаЁжъ</t>
+  </si>
+  <si>
+    <t>E-4KF-469-W40-X00-Y1</t>
+  </si>
+  <si>
+    <t>Доярушка</t>
+  </si>
+  <si>
+    <t>E-4KF-187-F01-X00-Y4</t>
+  </si>
+  <si>
+    <t>Лаймовое Тру-ля-ля</t>
+  </si>
+  <si>
+    <t>E-2SN-208-G40-X00-Y9</t>
+  </si>
+  <si>
+    <t>Трубочки хрустящие</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Снэки "Трубочки хрустящие со вкусом сгущенного молока" </t>
+  </si>
+  <si>
+    <t>E-1BA-150-G40-X00-Y9</t>
+  </si>
+  <si>
+    <t>E-1BA-152-G40-X00-Y9</t>
+  </si>
+  <si>
+    <t>Вертушки-Веснушки</t>
+  </si>
+  <si>
+    <t>E-4KF-440-F50-X00-Y10</t>
+  </si>
+  <si>
+    <t>E-4KF-441-F50-X00-Y10</t>
+  </si>
+  <si>
+    <t>Classic/Milk</t>
+  </si>
+  <si>
+    <t>TRUFFLE</t>
+  </si>
+  <si>
+    <t>Конфеты "35" со вкусом шоколада 1,5 кг</t>
+  </si>
+  <si>
+    <t>ДаЁжъ® Конфеты с карамелью, арахисом и криспи вал 1,5 кг</t>
+  </si>
+  <si>
+    <t>1,5 кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДаЁжъ® Конфеты Вкус пломбира вал 1,5 кг </t>
+  </si>
+  <si>
+    <t>Конфеты "Доярушка" вал 4 кг  УП1</t>
+  </si>
+  <si>
+    <t>4 кг</t>
+  </si>
+  <si>
+    <t>Конфеты "Лаймовое Тру-ля-ля" пакет 1 кг</t>
+  </si>
+  <si>
+    <t>4*1</t>
+  </si>
+  <si>
+    <t>Снэки Трубочки хрустящие со вкусом сгущенного молока 400 г</t>
+  </si>
+  <si>
+    <t>400 гр</t>
+  </si>
+  <si>
+    <t>Вафли декорированные "Вертушки-Веснушки" со вкусом вареной сгущенки</t>
+  </si>
+  <si>
+    <t>Вафли декорированные "Вертушки-Веснушки" со вкусом шоколада</t>
+  </si>
+  <si>
+    <t>Конфеты TRUFFLE CLASSIC/ТРЮФЕЛЬ КЛАССИЧЕСКИЙ Пакет 500 г  УП10</t>
+  </si>
+  <si>
+    <t>Конфеты TRUFFLE MILK/ТРЮФЕЛЬ МОЛОЧНЫЙ Пакет 500 г  УП10</t>
   </si>
 </sst>
 </file>
@@ -295,22 +400,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -327,14 +417,492 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист3"/>
-      <sheetName val="Лист2"/>
+      <sheetName val="Реестр промо 4 кв.24"/>
+      <sheetName val="ТО и % Инвестиций"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Обновить таблицы"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>Вид - Марка</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>Вид</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Вафельные конф.</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>Вафельные конф.</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6" t="str">
+            <v>Вафельные конф.</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>Вафельные конф.</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>Вафельные конф.</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>Вафельные конф.</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>Вафельные конф.</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>Вафельные конф.</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>Вафельные конф.</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>Вафельные конф.</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>Вафельные конф.</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15" t="str">
+            <v>Вафельные конф.</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>Вафельные конф.</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>Вафельные конф.</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18" t="str">
+            <v>Вафельные конф.</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19" t="str">
+            <v>Вафельные конф.</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20" t="str">
+            <v>Вафельные конф.</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>Вафельные конф.</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22" t="str">
+            <v>Вафельные конф.</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Вафельные конф.</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>Вафли</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25" t="str">
+            <v>Готовые завтраки</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26" t="str">
+            <v>Десерт</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27" t="str">
+            <v>Десерт</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>Десерт</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>Жевательные конф.</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>Жевательные конф.</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31" t="str">
+            <v>Жевательные конф.</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32" t="str">
+            <v>Жевательные конф.</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33" t="str">
+            <v>Жевательные конф.</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34" t="str">
+            <v>Жевательные конф.</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35" t="str">
+            <v>Ирис</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36" t="str">
+            <v>Ирис</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37" t="str">
+            <v>Комбинированные конф.</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38" t="str">
+            <v>Комбинированные конф.</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39" t="str">
+            <v>Комбинированные конф.</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40" t="str">
+            <v>Комбинированные конф.</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41" t="str">
+            <v>Комбинированные конф.</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42" t="str">
+            <v>Комбинированные конф.</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43" t="str">
+            <v>Комбинированные конф.</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44" t="str">
+            <v>Комбинированные конф.</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45" t="str">
+            <v>Комбинированные конф.</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46" t="str">
+            <v>Комбинированные конф.</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47" t="str">
+            <v>Комбинированные конф.</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48" t="str">
+            <v>Комбинированные конф.</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49" t="str">
+            <v>Комбинированные конф.</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50" t="str">
+            <v>Комбинированные конф.</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51" t="str">
+            <v>Комбинированные конф.</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52" t="str">
+            <v>Комбинированные конф.</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53" t="str">
+            <v>Комбинированные конф.</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54" t="str">
+            <v>Комбинированные конф.</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55" t="str">
+            <v>Комбинированные конф.</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56" t="str">
+            <v>Комбинированные конф.</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57" t="str">
+            <v>Конфеты в коробках</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58" t="str">
+            <v>Конфеты в коробках</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59" t="str">
+            <v>Конфеты в коробках</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60" t="str">
+            <v>Конфеты в коробках</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61" t="str">
+            <v>Конфеты в коробках</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62" t="str">
+            <v>Мармелад</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63" t="str">
+            <v>Мармелад</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64" t="str">
+            <v>Минидесерты</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65" t="str">
+            <v>Минидесерты</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66" t="str">
+            <v>Прочие КН</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67" t="str">
+            <v>Прочие КН</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68" t="str">
+            <v>Прочие КН</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="C69" t="str">
+            <v>Прочие КН</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70" t="str">
+            <v>Формованная плитка</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71" t="str">
+            <v>Формованная плитка</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72" t="str">
+            <v>Формованная плитка</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73" t="str">
+            <v>Формованная плитка</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74" t="str">
+            <v>Формованная плитка</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75" t="str">
+            <v>Формованная плитка</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76" t="str">
+            <v>Формованная плитка</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77" t="str">
+            <v>Формованные конф.</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="C78" t="str">
+            <v>Формованные конф.</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="C79" t="str">
+            <v>Формованные конф.</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="C80" t="str">
+            <v>Формованные конф.</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="C81" t="str">
+            <v>Формованные конф.</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="C82" t="str">
+            <v>Формованные конф.</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="C83" t="str">
+            <v>Формованные конф.</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="C84" t="str">
+            <v>Формованные конф.</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="C85" t="str">
+            <v>Формованные конф.</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="C86" t="str">
+            <v>Формованные конф.</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="C87" t="str">
+            <v>Формованные конф.</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="C88" t="str">
+            <v>Экструзия/Трубочки</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="C89" t="str">
+            <v>Экструзия/Трубочки</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="C90" t="str">
+            <v>Экструзия/Трубочки</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="C91" t="str">
+            <v>Экструзия/Трубочки</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="C92" t="str">
+            <v>Экструзия/Трубочки</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="C93" t="str">
+            <v>Экструзия/Трубочки</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="C94" t="str">
+            <v>Экструзия/Трубочки</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="C95" t="str">
+            <v>Экструзия/Трубочки</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="C96" t="str">
+            <v>Экструзия/Трубочки</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -603,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,6 +1578,158 @@
         <v>72</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25">
+        <v>1.5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27">
+        <v>1.5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
